--- a/excel/data202310.xlsx
+++ b/excel/data202310.xlsx
@@ -5763,7 +5763,7 @@
         <v>9500</v>
       </c>
       <c r="H2" t="n">
-        <v>5643.86</v>
+        <v>3935.85</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -5794,7 +5794,7 @@
         <v>1607.56</v>
       </c>
       <c r="H3" t="n">
-        <v>1283.15</v>
+        <v>894.83</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -5825,7 +5825,7 @@
         <v>36613.65</v>
       </c>
       <c r="H4" t="n">
-        <v>8700.440000000001</v>
+        <v>6067.41</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>1169</v>
       </c>
       <c r="H5" t="n">
-        <v>218.64</v>
+        <v>152.47</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -5887,7 +5887,7 @@
         <v>210.65</v>
       </c>
       <c r="H6" t="n">
-        <v>114.67</v>
+        <v>79.97</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -5918,7 +5918,7 @@
         <v>61531.87</v>
       </c>
       <c r="H7" t="n">
-        <v>29250.89</v>
+        <v>20398.65</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>28328.6</v>
       </c>
       <c r="H8" t="n">
-        <v>109922.45</v>
+        <v>76656.45</v>
       </c>
       <c r="I8" t="n">
         <v>46</v>
@@ -5980,7 +5980,7 @@
         <v>197.81</v>
       </c>
       <c r="H9" t="n">
-        <v>129.46</v>
+        <v>90.28</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -6011,7 +6011,7 @@
         <v>20732.77</v>
       </c>
       <c r="H10" t="n">
-        <v>24497.67</v>
+        <v>17083.9</v>
       </c>
       <c r="I10" t="n">
         <v>34</v>
@@ -6042,7 +6042,7 @@
         <v>14984.92</v>
       </c>
       <c r="H11" t="n">
-        <v>26817.04</v>
+        <v>18701.35</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>16130.52</v>
       </c>
       <c r="H12" t="n">
-        <v>28518.16</v>
+        <v>19887.66</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>140021.67</v>
       </c>
       <c r="H13" t="n">
-        <v>345101.23</v>
+        <v>240662.7</v>
       </c>
       <c r="I13" t="n">
         <v>8</v>
@@ -6135,7 +6135,7 @@
         <v>2790</v>
       </c>
       <c r="H14" t="n">
-        <v>1831.7</v>
+        <v>1277.37</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -6166,7 +6166,7 @@
         <v>583</v>
       </c>
       <c r="H15" t="n">
-        <v>90.11</v>
+        <v>62.84</v>
       </c>
       <c r="I15" t="n">
         <v>5</v>
@@ -6197,7 +6197,7 @@
         <v>3502.96</v>
       </c>
       <c r="H16" t="n">
-        <v>9711.52</v>
+        <v>6772.51</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>337904.98</v>
       </c>
       <c r="H17" t="n">
-        <v>591830.9899999999</v>
+        <v>412724.24</v>
       </c>
       <c r="I17" t="n">
         <v>97</v>

--- a/excel/data202310.xlsx
+++ b/excel/data202310.xlsx
@@ -717,7 +717,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>6672.18</t>
+          <t>49280.08</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>42607.90</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1065,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1746,7 +1746,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>顾芸鑫（客户经理）</t>
+          <t>秦婧婷</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1756,12 +1756,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>38935.00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1776,17 +1776,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>20035.00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>18900.00</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>秦婧婷</t>
+          <t>曲鑫（客户经理）</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>38935.00</t>
+          <t>13599.70</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5699.70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>23.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20035.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>18900.00</t>
+          <t>7900.00</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5012.51</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1880,7 +1880,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>曲鑫（客户经理）</t>
+          <t>郑天宁</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1890,64 +1890,64 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13599.70</t>
+          <t>21249.82</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5699.70</t>
+          <t>97.82</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>23.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5002.00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7900.00</t>
+          <t>16150.00</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5012.51</t>
+          <t>97.82</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>22.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>989.69</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>28.00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>郑天宁</t>
+          <t>朱强</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1957,57 +1957,57 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>21249.82</t>
+          <t>54056.86</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>97.82</t>
+          <t>18981.86</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>5002.00</t>
+          <t>15075.00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>16150.00</t>
+          <t>20000.00</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>97.82</t>
+          <t>18981.86</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>989.69</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>28.00</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>王小娟</t>
+          <t>徐淑颖</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>46539.00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>46539.00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2349,22 +2349,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>徐淑颖</t>
+          <t>姚志华</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>公司业务四部</t>
+          <t>普惠业务部</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>46539.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2379,12 +2379,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>46539.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2404,86 +2404,86 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>70144.21</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1817.00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>朱强</t>
+          <t>方兆阳</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>公司业务四部</t>
+          <t>普惠业务部</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>54056.86</t>
+          <t>200.00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>18981.86</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>15075.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>20000.00</t>
+          <t>200.00</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>18981.86</t>
+          <t>200.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>13199.87</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>240.00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>姚志华</t>
+          <t>刘启斌</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2538,19 +2538,19 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>70144.21</t>
+          <t>13353.00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1817.00</t>
+          <t>56.00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>方兆阳</t>
+          <t>彭珍珍</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2560,12 +2560,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>200.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2590,34 +2590,34 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>200.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>200.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>13199.87</t>
+          <t>19496.00</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>240.00</t>
+          <t>80.00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>刘启斌</t>
+          <t>邱俊杰</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2672,19 +2672,19 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>13353.00</t>
+          <t>32905.00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>56.00</t>
+          <t>127.00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>彭珍珍</t>
+          <t>沈佳杰</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2739,19 +2739,19 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>19496.00</t>
+          <t>9010.00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>80.00</t>
+          <t>39.00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>邱俊杰</t>
+          <t>王明印</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>32905.00</t>
+          <t>33253.00</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2818,7 +2818,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>沈佳杰</t>
+          <t>王爽</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2828,12 +2828,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2858,34 +2858,34 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1000.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>9010.00</t>
+          <t>6382.00</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>15.00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>王明印</t>
+          <t>叶峰睿</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2940,144 +2940,10 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>33253.00</t>
+          <t>13810.00</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
-        <is>
-          <t>127.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>王爽</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>普惠业务部</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>1000.00</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>6382.00</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>叶峰睿</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>普惠业务部</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>13810.00</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
         <is>
           <t>64.00</t>
         </is>
